--- a/screenshots/Achievemnts.xlsx
+++ b/screenshots/Achievemnts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28cb33213666b2d1/Desktop/Payday 2 Secret Pattern/screenshots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_AD4DB114E441178AC67DF48DAE57D1BE693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFBF26EA-E1D5-4484-B3CA-6A11BD1FD564}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_AD4DB114E441178AC67DF48DAE57D1BE693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A90CD6-CD3B-4F76-B5A5-E0FB4FC50EBA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +207,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -223,21 +235,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -272,10 +293,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:G11"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="G54" sqref="E54:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +592,7 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -587,13 +604,13 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
@@ -617,22 +634,22 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -651,13 +668,13 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -669,13 +686,13 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
@@ -685,13 +702,13 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>14</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
@@ -708,22 +725,22 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>17</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <v>18</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -770,13 +787,13 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>25</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -865,13 +882,13 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E39" s="6">
+      <c r="E39" s="4">
         <v>38</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -890,24 +907,24 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="6">
+      <c r="E42" s="4">
         <v>41</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E43" s="4">
+      <c r="E43" s="8">
         <v>42</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -919,13 +936,13 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E45" s="6">
+      <c r="E45" s="4">
         <v>44</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="9"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E46" s="1">
@@ -949,13 +966,13 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="6">
+      <c r="E49" s="10">
         <v>48</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="9"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="1">
@@ -972,64 +989,64 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="6">
+      <c r="E52" s="4">
         <v>51</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E53" s="6">
+      <c r="E53" s="4">
         <v>52</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="6">
+      <c r="E54" s="13">
         <v>53</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="6"/>
+      <c r="G54" s="13"/>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="6">
+      <c r="E55" s="4">
         <v>54</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="6">
+      <c r="E56" s="4">
         <v>55</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="57" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E57" s="6">
+      <c r="E57" s="4">
         <v>56</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="5" t="s">
         <v>23</v>
       </c>
     </row>
